--- a/biology/Zoologie/Aellopos_ceculus/Aellopos_ceculus.xlsx
+++ b/biology/Zoologie/Aellopos_ceculus/Aellopos_ceculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aellopos ceculus est une espèce d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Aellopos.
 </t>
@@ -513,18 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago
-L'envergure varie de 42 a 47 mm. Il se distingue de toutes les autres espèces d’ Aellopos par la bande médiane jaune qui se trouve à la face dorsale de l’aile postérieure.
+          <t>L'imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'envergure varie de 42 a 47 mm. Il se distingue de toutes les autres espèces d’ Aellopos par la bande médiane jaune qui se trouve à la face dorsale de l’aile postérieure.
 			Avers du mâle (coll.MHNT)
 			Revers du mâle (coll.MHNT)
 			Avers de la femelle (coll.MHNT)
 			Revers de la femelle (coll.MHNT)
-Les œufs
-Les œufs sont sphériques et verdâtres.
-La chenille
-Il existe au moins deux formes de couleur, une forme verte et une forme brun rougeâtre.
-La nymphe
-La nymphose a lieu dans des cocons en vrac dans des chambres souterraines peu profondes. Les nymphes sont sombres, lisses et brillantes.
 </t>
         </is>
       </c>
@@ -550,15 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. Les adultes des deux sexes sont attirés par la lumière, mais surtout les mâles. Il y a plusieurs générations par an.
-Alimentation
-Les adultes se nourrissent du nectar des fleurs du genre Abelia.
-Les chenilles se nourrissent de rubiacées, notamment des espèces Genipa americana, Alibertia edulis et du genre Randia.
+          <t>Les œufs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont sphériques et verdâtres.
 </t>
         </is>
       </c>
@@ -584,10 +598,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe au moins deux formes de couleur, une forme verte et une forme brun rougeâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La nymphe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nymphose a lieu dans des cocons en vrac dans des chambres souterraines peu profondes. Les nymphes sont sombres, lisses et brillantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. Les adultes des deux sexes sont attirés par la lumière, mais surtout les mâles. Il y a plusieurs générations par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes se nourrissent du nectar des fleurs du genre Abelia.
+Les chenilles se nourrissent de rubiacées, notamment des espèces Genipa americana, Alibertia edulis et du genre Randia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Distribution
 L'espèce se rencontre dans la partie nord de l'Amérique du Sud, mais aussi en Amérique centrale jusqu'au Mexique .
@@ -596,37 +757,74 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aellopos_ceculus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aellopos_ceculus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L’espèce Aellopos ceculus a été décrite par l'entomologiste hollandais Pieter Cramer en 1775, sous le nom initial de Sphinx ceculus[1]. La localité type est le Suriname.
-Synonymie
-Sphinx ceculus Cramer, 1777 protonyme
-Macroglossum fasciatum Swainson, 1823[2]
-Eupyrrhoglossum ceculus  Godman &amp; Salvin, 1881[3]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce Aellopos ceculus a été décrite par l'entomologiste hollandais Pieter Cramer en 1775, sous le nom initial de Sphinx ceculus. La localité type est le Suriname.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_ceculus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sphinx ceculus Cramer, 1777 protonyme
+Macroglossum fasciatum Swainson, 1823
+Eupyrrhoglossum ceculus  Godman &amp; Salvin, 1881
 Sesia gehleni Closs, 1922</t>
         </is>
       </c>
